--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem1/99/word_level_predictions_99.xlsx
@@ -4662,106 +4662,106 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" t="n">
         <v>8</v>
       </c>
-      <c r="B82" s="2" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C82" s="2" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>Precision</t>
         </is>
       </c>
-      <c r="D82" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" s="2" t="inlineStr">
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F82" s="2" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G82" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L82" s="2" t="inlineStr">
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I82" t="b">
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K82" t="b">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" t="n">
         <v>8</v>
       </c>
-      <c r="B83" s="2" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C83" s="2" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D83" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E83" s="2" t="inlineStr">
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F83" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G83" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L83" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K83" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9521,7 +9521,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G175" t="b">
@@ -9545,579 +9545,579 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E176" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G176" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K176" t="b">
-        <v>1</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F176" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G176" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
+      <c r="A177" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B177" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C177" s="2" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" t="n">
+      <c r="D177" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" t="b">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K177" t="b">
-        <v>1</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
+      <c r="A178" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B178" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C178" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" t="n">
+      <c r="D178" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" t="b">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K178" t="b">
-        <v>1</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
+      <c r="A179" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C179" s="2" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" t="b">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C181" s="2" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C183" s="2" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="inlineStr">
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-      <c r="L184" t="inlineStr">
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
-      <c r="L185" t="inlineStr">
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="E186" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G186" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" t="b">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11029,7 +11029,7 @@
       </c>
       <c r="F204" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G204" s="2" t="b">
@@ -11041,11 +11041,11 @@
         </is>
       </c>
       <c r="I204" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K204" s="2" t="b">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="L204" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11093,11 +11093,11 @@
         </is>
       </c>
       <c r="I205" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K205" s="2" t="b">
@@ -11133,7 +11133,7 @@
       </c>
       <c r="F206" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G206" s="2" t="b">
@@ -11145,11 +11145,11 @@
         </is>
       </c>
       <c r="I206" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K206" s="2" t="b">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="L206" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11185,7 +11185,7 @@
       </c>
       <c r="F207" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G207" s="2" t="b">
@@ -11197,11 +11197,11 @@
         </is>
       </c>
       <c r="I207" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K207" s="2" t="b">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="L207" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11237,7 +11237,7 @@
       </c>
       <c r="F208" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G208" s="2" t="b">
@@ -11249,11 +11249,11 @@
         </is>
       </c>
       <c r="I208" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K208" s="2" t="b">
@@ -11261,7 +11261,7 @@
       </c>
       <c r="L208" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11445,7 +11445,7 @@
       </c>
       <c r="F212" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G212" s="2" t="b">
@@ -11469,7 +11469,7 @@
       </c>
       <c r="L212" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F214" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G214" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11573,7 +11573,7 @@
       </c>
       <c r="L214" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G215" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -12514,158 +12514,158 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C233" s="2" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D233" t="n">
+      <c r="D233" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E233" t="inlineStr">
+      <c r="E233" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
+      <c r="F233" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G233" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" t="inlineStr">
+      <c r="G233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I233" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr">
+      <c r="I233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J233" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L233" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>exceeding</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K233" t="b">
-        <v>1</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
+      <c r="I234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B235" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>exceeding</t>
-        </is>
-      </c>
-      <c r="D234" t="n">
-        <v>7</v>
-      </c>
-      <c r="E234" t="inlineStr">
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>nnn,</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E235" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="F235" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>20</v>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>nnn,</t>
-        </is>
-      </c>
-      <c r="D235" t="n">
-        <v>8</v>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="I235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G236" s="2" t="b">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="L236" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="F238" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G238" s="2" t="b">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="F239" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G239" s="2" t="b">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem1/99/word_level_predictions_99.xlsx
@@ -4662,106 +4662,106 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
+      <c r="A82" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C82" s="2" t="inlineStr">
         <is>
           <t>Precision</t>
         </is>
       </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" t="inlineStr">
+      <c r="D82" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F82" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I82" t="b">
-        <v>1</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K82" t="b">
-        <v>1</v>
-      </c>
-      <c r="L82" t="inlineStr">
+      <c r="G82" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C83" s="2" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D83" t="n">
-        <v>1</v>
-      </c>
-      <c r="E83" t="inlineStr">
+      <c r="D83" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I83" t="b">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K83" t="b">
-        <v>1</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -9521,603 +9521,603 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>16</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Propulsion</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>2</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>16</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>3</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" t="b">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>16</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>4</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" t="b">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>16</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>limited</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>5</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>16</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>6</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>16</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>ensure</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>7</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>16</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>8</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>16</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>health</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>9</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>16</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>10</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>16</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>11</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>16</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>battery</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>12</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G175" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I175" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K175" t="b">
-        <v>1</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B176" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C176" s="2" t="inlineStr">
-        <is>
-          <t>Propulsion</t>
-        </is>
-      </c>
-      <c r="D176" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E176" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F176" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G176" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L176" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B177" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C177" s="2" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="D177" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L177" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B178" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C178" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D178" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L178" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B179" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C179" s="2" t="inlineStr">
-        <is>
-          <t>limited</t>
-        </is>
-      </c>
-      <c r="D179" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L179" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B180" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C180" s="2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D180" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B181" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C181" s="2" t="inlineStr">
-        <is>
-          <t>ensure</t>
-        </is>
-      </c>
-      <c r="D181" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B182" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C182" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D182" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L182" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B183" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C183" s="2" t="inlineStr">
-        <is>
-          <t>health</t>
-        </is>
-      </c>
-      <c r="D183" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B184" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C184" s="2" t="inlineStr">
-        <is>
-          <t>of</t>
-        </is>
-      </c>
-      <c r="D184" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B185" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C185" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D185" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B186" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C186" s="2" t="inlineStr">
-        <is>
-          <t>battery</t>
-        </is>
-      </c>
-      <c r="D186" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E186" s="2" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G186" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11029,7 +11029,7 @@
       </c>
       <c r="F204" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G204" s="2" t="b">
@@ -11041,11 +11041,11 @@
         </is>
       </c>
       <c r="I204" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K204" s="2" t="b">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="L204" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -11093,11 +11093,11 @@
         </is>
       </c>
       <c r="I205" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K205" s="2" t="b">
@@ -11133,7 +11133,7 @@
       </c>
       <c r="F206" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G206" s="2" t="b">
@@ -11145,11 +11145,11 @@
         </is>
       </c>
       <c r="I206" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K206" s="2" t="b">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="L206" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11185,7 +11185,7 @@
       </c>
       <c r="F207" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G207" s="2" t="b">
@@ -11197,11 +11197,11 @@
         </is>
       </c>
       <c r="I207" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K207" s="2" t="b">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="L207" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11237,7 +11237,7 @@
       </c>
       <c r="F208" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G208" s="2" t="b">
@@ -11249,11 +11249,11 @@
         </is>
       </c>
       <c r="I208" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K208" s="2" t="b">
@@ -11261,7 +11261,7 @@
       </c>
       <c r="L208" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11445,7 +11445,7 @@
       </c>
       <c r="F212" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G212" s="2" t="b">
@@ -11469,7 +11469,7 @@
       </c>
       <c r="L212" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F214" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G214" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11573,7 +11573,7 @@
       </c>
       <c r="L214" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G215" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -12514,158 +12514,158 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" t="n">
         <v>20</v>
       </c>
-      <c r="B233" s="2" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D233" s="2" t="n">
+      <c r="D233" t="n">
         <v>6</v>
       </c>
-      <c r="E233" s="2" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F233" s="2" t="inlineStr">
+      <c r="F233" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" s="2" t="inlineStr">
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L233" s="2" t="inlineStr">
+      <c r="I233" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K233" t="b">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>20</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>exceeding</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
+      <c r="D234" t="n">
         <v>7</v>
       </c>
-      <c r="E234" s="2" t="inlineStr">
+      <c r="E234" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F234" s="2" t="inlineStr">
+      <c r="F234" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>20</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>nnn,</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>8</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F235" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G236" s="2" t="b">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="L236" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="F238" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G238" s="2" t="b">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="F239" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G239" s="2" t="b">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
